--- a/templates/QARSF/RSTKF_AutomationData.xlsx
+++ b/templates/QARSF/RSTKF_AutomationData.xlsx
@@ -1,41 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dellDevonforce\Provar\ErpFinalProject\rsqasampleproj\rsqasampleproj\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Namrata\git\rsqasampleproj\templates\QARSF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{62DBD342-D46D-46B1-BE7C-158A8800FE75}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89D2472A-9626-490F-808D-6C5DA455E5B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="14" firstSheet="10" windowHeight="11160" windowWidth="20730" xWindow="-120" xr2:uid="{B6C21A89-21B4-4624-A955-66D166717697}" yWindow="-120"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="10" activeTab="13" xr2:uid="{B6C21A89-21B4-4624-A955-66D166717697}"/>
   </bookViews>
   <sheets>
-    <sheet name="PurchaseOrder" r:id="rId1" sheetId="3"/>
-    <sheet name="MultiplePOLine" r:id="rId2" sheetId="4"/>
-    <sheet name="POVendor" r:id="rId3" sheetId="20"/>
-    <sheet name="UpdatePOLineDetail" r:id="rId4" sheetId="19"/>
-    <sheet name="PODIMVAL" r:id="rId5" sheetId="13"/>
-    <sheet name="POHDRRev" r:id="rId6" sheetId="1"/>
-    <sheet name="POReceipt" r:id="rId7" sheetId="2"/>
-    <sheet name="AddItem" r:id="rId8" sheetId="18"/>
-    <sheet name="POReceiptPartial" r:id="rId9" sheetId="12"/>
-    <sheet name="POIssue" r:id="rId10" sheetId="6"/>
-    <sheet name="CostTransaction" r:id="rId11" sheetId="8"/>
-    <sheet name="POAuthorization" r:id="rId12" sheetId="7"/>
-    <sheet name="POAuthorizationPartial" r:id="rId13" sheetId="14"/>
-    <sheet name="PurchaseRequisition" r:id="rId14" sheetId="9"/>
-    <sheet name="InventoryRequisition" r:id="rId15" sheetId="10"/>
-    <sheet name="VendorClass" r:id="rId16" sheetId="15"/>
-    <sheet name="NONINVPOITEM" r:id="rId17" sheetId="16"/>
-    <sheet name="VendorMaster" r:id="rId18" sheetId="17"/>
-    <sheet name="IndirectRequisition" r:id="rId19" sheetId="11"/>
+    <sheet name="PurchaseOrder" sheetId="3" r:id="rId1"/>
+    <sheet name="MultiplePOLine" sheetId="4" r:id="rId2"/>
+    <sheet name="POVendor" sheetId="20" r:id="rId3"/>
+    <sheet name="UpdatePOLineDetail" sheetId="19" r:id="rId4"/>
+    <sheet name="PODIMVAL" sheetId="13" r:id="rId5"/>
+    <sheet name="POHDRRev" sheetId="1" r:id="rId6"/>
+    <sheet name="POReceipt" sheetId="2" r:id="rId7"/>
+    <sheet name="AddItem" sheetId="18" r:id="rId8"/>
+    <sheet name="POReceiptPartial" sheetId="12" r:id="rId9"/>
+    <sheet name="POIssue" sheetId="6" r:id="rId10"/>
+    <sheet name="CostTransaction" sheetId="8" r:id="rId11"/>
+    <sheet name="POAuthorization" sheetId="7" r:id="rId12"/>
+    <sheet name="POAuthorizationPartial" sheetId="14" r:id="rId13"/>
+    <sheet name="PurchaseRequisition" sheetId="9" r:id="rId14"/>
+    <sheet name="InventoryRequisition" sheetId="10" r:id="rId15"/>
+    <sheet name="VendorClass" sheetId="15" r:id="rId16"/>
+    <sheet name="NONINVPOITEM" sheetId="16" r:id="rId17"/>
+    <sheet name="VendorMaster" sheetId="17" r:id="rId18"/>
+    <sheet name="IndirectRequisition" sheetId="11" r:id="rId19"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="125">
   <si>
     <t>Vendor</t>
   </si>
@@ -411,28 +411,10 @@
     <t>Bank Account</t>
   </si>
   <si>
-    <t>1220.0</t>
-  </si>
-  <si>
-    <t>689.0</t>
-  </si>
-  <si>
-    <t>1222.0</t>
-  </si>
-  <si>
-    <t>691.0</t>
-  </si>
-  <si>
     <t>MMDD Bank Account</t>
   </si>
   <si>
     <t>Bank of Dad</t>
-  </si>
-  <si>
-    <t>1224.0</t>
-  </si>
-  <si>
-    <t>693.0</t>
   </si>
   <si>
     <t>1226.0</t>
@@ -451,10 +433,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="#,##0.0"/>
-  </numFmts>
-  <fonts count="30" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -492,150 +471,6 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -657,7 +492,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -665,91 +500,31 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+  <cellXfs count="10">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyFill="1" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="6" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="1" fillId="0" fontId="7" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="8" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="9" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="10" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="3" fillId="0" fontId="11" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="12" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="4" fillId="0" fontId="13" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="14" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="5" fillId="0" fontId="15" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="16" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="6" fillId="0" fontId="17" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="18" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="7" fillId="0" fontId="19" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="20" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="8" fillId="0" fontId="21" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="22" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="9" fillId="0" fontId="23" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="24" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="10" fillId="0" fontId="25" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="26" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="11" fillId="0" fontId="27" numFmtId="49" xfId="0"/>
-    <xf numFmtId="164" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="29" fillId="0" borderId="12" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -766,10 +541,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -804,7 +579,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -856,7 +631,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -967,21 +742,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -998,7 +773,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -1050,14 +825,14 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C4B9882-54A1-458A-9394-E3A41E6E9252}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C4B9882-54A1-458A-9394-E3A41E6E9252}">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1066,9 +841,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="48.5703125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="8.7109375" collapsed="true"/>
+    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="48.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="8.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -1106,13 +881,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD20C591-0002-4368-A7AE-91D992F4C90B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD20C591-0002-4368-A7AE-91D992F4C90B}">
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1121,11 +896,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="20.7109375" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="51.28515625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="13.140625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="13.7109375" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="13.140625" collapsed="true"/>
+    <col min="1" max="1" width="20.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="51.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="13.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="13.140625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -1175,13 +950,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2E8B54E-E710-493B-ACB1-742CFB184921}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2E8B54E-E710-493B-ACB1-742CFB184921}">
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1190,9 +965,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" bestFit="true" customWidth="true" width="35.85546875" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="3" width="18.85546875" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="51.28515625" collapsed="true"/>
+    <col min="1" max="2" width="35.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.85546875" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="51.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -1336,13 +1111,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD0CA9A3-1A45-4654-BF51-4728E3E057D2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD0CA9A3-1A45-4654-BF51-4728E3E057D2}">
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1351,8 +1126,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="20.7109375" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="40.28515625" collapsed="true"/>
+    <col min="1" max="1" width="20.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="40.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -1405,13 +1180,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01922CF7-780E-4770-868D-4754A14FF7E5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01922CF7-780E-4770-868D-4754A14FF7E5}">
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1420,7 +1195,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="15.5703125" collapsed="true"/>
+    <col min="5" max="5" width="15.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -1472,23 +1247,23 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89BE9538-B6B3-4C5D-B160-A6BB22151AFC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89BE9538-B6B3-4C5D-B160-A6BB22151AFC}">
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="25.5703125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="21.140625" collapsed="true"/>
+    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="25.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="21.140625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -1506,8 +1281,8 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>6</v>
+      <c r="A2" s="1" t="s">
+        <v>110</v>
       </c>
       <c r="B2" t="s">
         <v>38</v>
@@ -1515,13 +1290,13 @@
       <c r="C2" t="s">
         <v>39</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>124</v>
+      <c r="D2" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>110</v>
+      <c r="A3" t="s">
+        <v>6</v>
       </c>
       <c r="B3" t="s">
         <v>38</v>
@@ -1529,35 +1304,35 @@
       <c r="C3" t="s">
         <v>39</v>
       </c>
-      <c r="D3" t="s">
-        <v>123</v>
+      <c r="D3" s="2" t="s">
+        <v>120</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8B3CC08-5902-46B1-B680-4FBFE135756B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8B3CC08-5902-46B1-B680-4FBFE135756B}">
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="51.09375" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="8.85546875" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="9.27734375" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="17.109375" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="13.3125" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="16.890625" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="18.53125" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="14.83984375" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="13.3984375" collapsed="true"/>
+    <col min="1" max="1" width="51.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="8.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="9.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="17.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="16.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="18.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="14.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13.42578125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -1591,13 +1366,13 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B2">
         <v>2</v>
       </c>
       <c r="C2">
-        <v>66</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
         <v>38</v>
@@ -1606,24 +1381,24 @@
         <v>44</v>
       </c>
       <c r="G2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H2" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="I2" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B3">
         <v>2</v>
       </c>
       <c r="C3">
-        <v>23</v>
+        <v>66</v>
       </c>
       <c r="D3" t="s">
         <v>38</v>
@@ -1632,22 +1407,22 @@
         <v>44</v>
       </c>
       <c r="G3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H3" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="I3" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A6130D2-2258-4970-AEC9-AEEFF9FC83D2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A6130D2-2258-4970-AEC9-AEEFF9FC83D2}">
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1656,8 +1431,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="13.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="16.28515625" collapsed="true"/>
+    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
@@ -1743,13 +1518,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4AC5DC2-E025-402D-BF69-1EF7E4D3E24B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4AC5DC2-E025-402D-BF69-1EF7E4D3E24B}">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1758,8 +1533,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="19.5703125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="2" max="2" width="19.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -1791,13 +1566,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F6EF229-A232-4FA4-B9BE-B547E34B6D44}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F6EF229-A232-4FA4-B9BE-B547E34B6D44}">
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
@@ -1806,7 +1581,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="13.140625" collapsed="true"/>
+    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -1850,12 +1625,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43030A8E-5EF5-4C2C-9F45-5AB5995C2560}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43030A8E-5EF5-4C2C-9F45-5AB5995C2560}">
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1864,7 +1639,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="39.85546875" collapsed="true"/>
+    <col min="1" max="1" width="39.85546875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -1901,13 +1676,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6C955E7-4781-43FD-9799-D5C0BF0CD978}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6C955E7-4781-43FD-9799-D5C0BF0CD978}">
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1916,10 +1691,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="51.28515625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="9.140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" hidden="true" width="14.0" collapsed="true"/>
-    <col min="5" max="6" customWidth="true" hidden="true" width="0.0" collapsed="true"/>
+    <col min="1" max="1" width="51.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="9.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="14" hidden="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="6" width="0" hidden="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -1991,13 +1766,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21FC0926-85C3-4BB9-9625-9C590ADC6DD2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21FC0926-85C3-4BB9-9625-9C590ADC6DD2}">
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2006,7 +1781,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="18.5703125" collapsed="true"/>
+    <col min="1" max="1" width="18.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -2025,12 +1800,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88AF96F5-6B31-480B-85BF-591CD9154932}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88AF96F5-6B31-480B-85BF-591CD9154932}">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2068,12 +1843,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41F0A514-3BD0-4147-9BA6-B453866E7E82}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41F0A514-3BD0-4147-9BA6-B453866E7E82}">
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2082,8 +1857,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="17.28515625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="11.85546875" collapsed="true"/>
+    <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -2119,12 +1894,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8C482DA-9739-4DD4-8D25-C6A6B22625C9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8C482DA-9739-4DD4-8D25-C6A6B22625C9}">
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2174,13 +1949,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC9C9AD3-2B09-4E34-AACF-6768C297C7C0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC9C9AD3-2B09-4E34-AACF-6768C297C7C0}">
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2189,8 +1964,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="48.5703125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="37.140625" collapsed="true"/>
+    <col min="2" max="2" width="48.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="37.140625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -2268,13 +2043,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF9A938D-E131-40DB-A365-B0D5BBB31922}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF9A938D-E131-40DB-A365-B0D5BBB31922}">
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2283,9 +2058,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="15.85546875" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="19.5703125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="15.85546875" collapsed="true"/>
+    <col min="2" max="2" width="15.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="19.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="15.85546875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -2364,13 +2139,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD2AB9CA-14A5-4485-B737-D2BE4976679E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD2AB9CA-14A5-4485-B737-D2BE4976679E}">
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2379,9 +2154,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="51.28515625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="8.7109375" collapsed="true"/>
+    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="51.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="8.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -2436,6 +2211,6 @@
       <c r="B4" s="1"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/templates/QARSF/RSTKF_AutomationData.xlsx
+++ b/templates/QARSF/RSTKF_AutomationData.xlsx
@@ -1,41 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Namrata\git\rsqasampleproj\templates\QARSF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89D2472A-9626-490F-808D-6C5DA455E5B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr documentId="13_ncr:1_{BB1F2555-C4BF-45DC-94E2-322E40C66BB2}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="10" activeTab="13" xr2:uid="{B6C21A89-21B4-4624-A955-66D166717697}"/>
+    <workbookView activeTab="14" windowHeight="11040" windowWidth="20730" xWindow="-120" xr2:uid="{B6C21A89-21B4-4624-A955-66D166717697}" yWindow="-120"/>
   </bookViews>
   <sheets>
-    <sheet name="PurchaseOrder" sheetId="3" r:id="rId1"/>
-    <sheet name="MultiplePOLine" sheetId="4" r:id="rId2"/>
-    <sheet name="POVendor" sheetId="20" r:id="rId3"/>
-    <sheet name="UpdatePOLineDetail" sheetId="19" r:id="rId4"/>
-    <sheet name="PODIMVAL" sheetId="13" r:id="rId5"/>
-    <sheet name="POHDRRev" sheetId="1" r:id="rId6"/>
-    <sheet name="POReceipt" sheetId="2" r:id="rId7"/>
-    <sheet name="AddItem" sheetId="18" r:id="rId8"/>
-    <sheet name="POReceiptPartial" sheetId="12" r:id="rId9"/>
-    <sheet name="POIssue" sheetId="6" r:id="rId10"/>
-    <sheet name="CostTransaction" sheetId="8" r:id="rId11"/>
-    <sheet name="POAuthorization" sheetId="7" r:id="rId12"/>
-    <sheet name="POAuthorizationPartial" sheetId="14" r:id="rId13"/>
-    <sheet name="PurchaseRequisition" sheetId="9" r:id="rId14"/>
-    <sheet name="InventoryRequisition" sheetId="10" r:id="rId15"/>
-    <sheet name="VendorClass" sheetId="15" r:id="rId16"/>
-    <sheet name="NONINVPOITEM" sheetId="16" r:id="rId17"/>
-    <sheet name="VendorMaster" sheetId="17" r:id="rId18"/>
-    <sheet name="IndirectRequisition" sheetId="11" r:id="rId19"/>
+    <sheet name="PurchaseOrder" r:id="rId1" sheetId="3"/>
+    <sheet name="MultiplePOLine" r:id="rId2" sheetId="4"/>
+    <sheet name="POVendor" r:id="rId3" sheetId="20"/>
+    <sheet name="UpdatePOLineDetail" r:id="rId4" sheetId="19"/>
+    <sheet name="PODIMVAL" r:id="rId5" sheetId="13"/>
+    <sheet name="POHDRRev" r:id="rId6" sheetId="1"/>
+    <sheet name="POReceipt" r:id="rId7" sheetId="2"/>
+    <sheet name="AddItem" r:id="rId8" sheetId="18"/>
+    <sheet name="POReceiptPartial" r:id="rId9" sheetId="12"/>
+    <sheet name="POIssue" r:id="rId10" sheetId="6"/>
+    <sheet name="CostTransaction" r:id="rId11" sheetId="8"/>
+    <sheet name="POAuthorization" r:id="rId12" sheetId="7"/>
+    <sheet name="POAuthorizationPartial" r:id="rId13" sheetId="14"/>
+    <sheet name="PurchaseRequisition" r:id="rId14" sheetId="9"/>
+    <sheet name="InventoryRequisition" r:id="rId15" sheetId="10"/>
+    <sheet name="VendorClass" r:id="rId16" sheetId="15"/>
+    <sheet name="NONINVPOITEM" r:id="rId17" sheetId="16"/>
+    <sheet name="VendorMaster" r:id="rId18" sheetId="17"/>
+    <sheet name="IndirectRequisition" r:id="rId19" sheetId="11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="137">
   <si>
     <t>Vendor</t>
   </si>
@@ -427,13 +427,52 @@
   </si>
   <si>
     <t>697.0</t>
+  </si>
+  <si>
+    <t>928.0</t>
+  </si>
+  <si>
+    <t>1620.0</t>
+  </si>
+  <si>
+    <t>930.0</t>
+  </si>
+  <si>
+    <t>1622.0</t>
+  </si>
+  <si>
+    <t>932.0</t>
+  </si>
+  <si>
+    <t>1624.0</t>
+  </si>
+  <si>
+    <t>934.0</t>
+  </si>
+  <si>
+    <t>1626.0</t>
+  </si>
+  <si>
+    <t>936.0</t>
+  </si>
+  <si>
+    <t>1628.0</t>
+  </si>
+  <si>
+    <t>938.0</t>
+  </si>
+  <si>
+    <t>1630.0</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="#,##0.0"/>
+  </numFmts>
+  <fonts count="46" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -470,6 +509,246 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
     </font>
   </fonts>
   <fills count="4">
@@ -492,7 +771,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -500,31 +779,131 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+  <cellXfs count="50">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf applyFill="1" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="6" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="1" fillId="0" fontId="7" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="8" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="9" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="10" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="3" fillId="0" fontId="11" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="12" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="4" fillId="0" fontId="13" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="14" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="5" fillId="0" fontId="15" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="16" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="6" fillId="0" fontId="17" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="18" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="7" fillId="0" fontId="19" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="20" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="8" fillId="0" fontId="21" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="22" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="9" fillId="0" fontId="23" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="24" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="10" fillId="0" fontId="25" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="26" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="11" fillId="0" fontId="27" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="28" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="12" fillId="0" fontId="29" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="30" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="13" fillId="0" fontId="31" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="32" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="14" fillId="0" fontId="33" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="34" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="15" fillId="0" fontId="35" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="36" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="16" fillId="0" fontId="37" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="38" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="17" fillId="0" fontId="39" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="40" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="18" fillId="0" fontId="41" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="42" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="19" fillId="0" fontId="43" numFmtId="49" xfId="0"/>
+    <xf numFmtId="164" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="45" fillId="0" borderId="20" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -541,10 +920,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -579,7 +958,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -631,7 +1010,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -742,21 +1121,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -773,7 +1152,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -825,25 +1204,25 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C4B9882-54A1-458A-9394-E3A41E6E9252}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C4B9882-54A1-458A-9394-E3A41E6E9252}">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="48.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="8.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="48.5703125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="8.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -881,13 +1260,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD20C591-0002-4368-A7AE-91D992F4C90B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD20C591-0002-4368-A7AE-91D992F4C90B}">
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -896,11 +1275,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="51.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="13.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="13.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="20.7109375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="51.28515625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="13.140625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="13.7109375" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="13.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -950,13 +1329,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2E8B54E-E710-493B-ACB1-742CFB184921}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2E8B54E-E710-493B-ACB1-742CFB184921}">
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -965,9 +1344,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="35.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18.85546875" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="51.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="2" bestFit="true" customWidth="true" width="35.85546875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="3" width="18.85546875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="51.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -1111,13 +1490,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD0CA9A3-1A45-4654-BF51-4728E3E057D2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD0CA9A3-1A45-4654-BF51-4728E3E057D2}">
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1126,8 +1505,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="40.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="20.7109375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="40.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -1180,13 +1559,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01922CF7-780E-4770-868D-4754A14FF7E5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01922CF7-780E-4770-868D-4754A14FF7E5}">
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1195,7 +1574,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="15.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="15.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -1247,23 +1626,23 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89BE9538-B6B3-4C5D-B160-A6BB22151AFC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89BE9538-B6B3-4C5D-B160-A6BB22151AFC}">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="25.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="21.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="25.5703125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="21.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -1309,13 +1688,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8B3CC08-5902-46B1-B680-4FBFE135756B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8B3CC08-5902-46B1-B680-4FBFE135756B}">
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1324,15 +1703,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="51.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="8.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="9.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="17.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="16.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="18.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="14.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="51.09375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="8.85546875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="9.27734375" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="17.109375" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="13.3125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="16.890625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="18.53125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="14.83984375" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="13.3984375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -1384,10 +1763,10 @@
         <v>117</v>
       </c>
       <c r="H2" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="I2" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -1410,19 +1789,19 @@
         <v>116</v>
       </c>
       <c r="H3" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="I3" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A6130D2-2258-4970-AEC9-AEEFF9FC83D2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A6130D2-2258-4970-AEC9-AEEFF9FC83D2}">
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1431,8 +1810,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="13.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="16.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
@@ -1518,13 +1897,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4AC5DC2-E025-402D-BF69-1EF7E4D3E24B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4AC5DC2-E025-402D-BF69-1EF7E4D3E24B}">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1533,8 +1912,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="19.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="11" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="19.5703125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -1566,13 +1945,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F6EF229-A232-4FA4-B9BE-B547E34B6D44}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F6EF229-A232-4FA4-B9BE-B547E34B6D44}">
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
@@ -1581,7 +1960,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="13.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -1625,12 +2004,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43030A8E-5EF5-4C2C-9F45-5AB5995C2560}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43030A8E-5EF5-4C2C-9F45-5AB5995C2560}">
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1639,7 +2018,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="39.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="39.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -1676,25 +2055,25 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6C955E7-4781-43FD-9799-D5C0BF0CD978}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6C955E7-4781-43FD-9799-D5C0BF0CD978}">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="51.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="9.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14" hidden="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="6" width="0" hidden="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="51.28515625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="9.140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" hidden="true" width="14.0" collapsed="true"/>
+    <col min="5" max="6" customWidth="true" hidden="true" width="0.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -1766,13 +2145,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21FC0926-85C3-4BB9-9625-9C590ADC6DD2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21FC0926-85C3-4BB9-9625-9C590ADC6DD2}">
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1781,7 +2160,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="18.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -1800,12 +2179,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88AF96F5-6B31-480B-85BF-591CD9154932}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88AF96F5-6B31-480B-85BF-591CD9154932}">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1843,12 +2222,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41F0A514-3BD0-4147-9BA6-B453866E7E82}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41F0A514-3BD0-4147-9BA6-B453866E7E82}">
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1857,8 +2236,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="17.28515625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="11.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -1894,12 +2273,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8C482DA-9739-4DD4-8D25-C6A6B22625C9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8C482DA-9739-4DD4-8D25-C6A6B22625C9}">
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1949,13 +2328,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC9C9AD3-2B09-4E34-AACF-6768C297C7C0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC9C9AD3-2B09-4E34-AACF-6768C297C7C0}">
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1964,8 +2343,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="48.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="37.140625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="48.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="37.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -2043,13 +2422,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF9A938D-E131-40DB-A365-B0D5BBB31922}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF9A938D-E131-40DB-A365-B0D5BBB31922}">
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2058,9 +2437,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="15.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="19.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="15.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="15.85546875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="19.5703125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="15.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -2139,13 +2518,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD2AB9CA-14A5-4485-B737-D2BE4976679E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD2AB9CA-14A5-4485-B737-D2BE4976679E}">
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2154,9 +2533,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="51.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="8.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="51.28515625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="8.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -2211,6 +2590,6 @@
       <c r="B4" s="1"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>